--- a/Sprint 1/Package  - Programmes et compétences/Base de données/InsertCompetenceTronCommun V2.xlsx
+++ b/Sprint 1/Package  - Programmes et compétences/Base de données/InsertCompetenceTronCommun V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnonceCompetence" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="258">
   <si>
     <t>enonceCompetence</t>
   </si>
@@ -820,6 +820,12 @@
   </si>
   <si>
     <t>idProgramme</t>
+  </si>
+  <si>
+    <t>idContexte</t>
+  </si>
+  <si>
+    <t>idCritere</t>
   </si>
 </sst>
 </file>
@@ -1138,178 +1144,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
     </row>
@@ -1321,267 +1355,360 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>76</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>101</v>
       </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>102</v>
       </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>104</v>
       </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>148</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>149</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>150</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>151</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>179</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>180</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>206</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>207</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>148</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>208</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>226</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>227</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>8</v>
       </c>
     </row>
@@ -1593,482 +1720,608 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>112</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>110</v>
       </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>6</v>
       </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>107</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>7</v>
       </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>8</v>
       </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>105</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>9</v>
       </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="E26">
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="F26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="E27">
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="F27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="E28">
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="F28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>5</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="E31">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="F31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="E32">
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="F32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="E33">
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="F33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>5</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="E36">
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="F36">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="E37">
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="F37">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="E38">
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="F38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="E39">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="E40">
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="F40">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="E41">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="F41">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="E42">
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="F42">
         <v>8</v>
       </c>
     </row>
@@ -2079,1866 +2332,2370 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="E15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="E16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="E20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="E21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="E23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="E24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="E25">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="E28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="E29">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="E30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="E32">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="D33">
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="E33">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="D34">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>65</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="D35">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="E35">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="D36">
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="E36">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>67</v>
       </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="D37">
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="E37">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>68</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>5</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>69</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>6</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>70</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>7</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>71</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>8</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>72</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>9</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>81</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="D43">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="E43">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>82</v>
       </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="D44">
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="E44">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>83</v>
       </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="D45">
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="E45">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>84</v>
       </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="D46">
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="E46">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>85</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>5</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>86</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="D48">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>87</v>
       </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="D49">
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="E49">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>88</v>
       </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="D50">
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="E50">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>89</v>
       </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="D51">
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="E51">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>90</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>5</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>91</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>6</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
         <v>92</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="D54">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
         <v>93</v>
       </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="D55">
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="E55">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>94</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="D56">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="E56">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
         <v>95</v>
       </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="D57">
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="E57">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
         <v>96</v>
       </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="D58">
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="E58">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
         <v>97</v>
       </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="D59">
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="E59">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
         <v>98</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>5</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
         <v>99</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>6</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
         <v>114</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="D62">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="E62">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>115</v>
       </c>
-      <c r="B63">
-        <v>2</v>
-      </c>
-      <c r="D63">
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="E63">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
         <v>116</v>
       </c>
-      <c r="B64">
-        <v>3</v>
-      </c>
-      <c r="D64">
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="E64">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
         <v>117</v>
       </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-      <c r="D65">
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="E65">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
         <v>118</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="D66">
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="E66">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
         <v>119</v>
       </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="D67">
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="E67">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
         <v>120</v>
       </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="D68">
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="E68">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
         <v>121</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="D69">
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="E69">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
         <v>122</v>
       </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="D70">
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="E70">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
         <v>123</v>
       </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="D71">
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="E71">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
         <v>124</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="D72">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="E72">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
         <v>125</v>
       </c>
-      <c r="B73">
-        <v>2</v>
-      </c>
-      <c r="D73">
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="E73">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
         <v>126</v>
       </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-      <c r="D74">
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="E74">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
         <v>127</v>
       </c>
-      <c r="B75">
-        <v>4</v>
-      </c>
-      <c r="D75">
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="E75">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
         <v>128</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>5</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
         <v>129</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="D77">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="E77">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
         <v>130</v>
       </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="D78">
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="E78">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
         <v>131</v>
       </c>
-      <c r="B79">
-        <v>3</v>
-      </c>
-      <c r="D79">
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="E79">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
         <v>132</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="D80">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="E80">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
         <v>133</v>
       </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="D81">
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="E81">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
         <v>134</v>
       </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="D82">
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="E82">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
         <v>135</v>
       </c>
-      <c r="B83">
-        <v>4</v>
-      </c>
-      <c r="D83">
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="E83">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
         <v>136</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>5</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
         <v>137</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="D85">
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="E85">
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
         <v>132</v>
       </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="D86">
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="E86">
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
         <v>138</v>
       </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="D87">
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="E87">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
         <v>139</v>
       </c>
-      <c r="B88">
-        <v>4</v>
-      </c>
-      <c r="D88">
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="E88">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
         <v>140</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="D89">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="E89">
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
         <v>141</v>
       </c>
-      <c r="B90">
-        <v>2</v>
-      </c>
-      <c r="D90">
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="E90">
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
         <v>142</v>
       </c>
-      <c r="B91">
-        <v>3</v>
-      </c>
-      <c r="D91">
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="E91">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
         <v>143</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="D92">
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="E92">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
         <v>144</v>
       </c>
-      <c r="B93">
-        <v>2</v>
-      </c>
-      <c r="D93">
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="E93">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
         <v>145</v>
       </c>
-      <c r="B94">
-        <v>3</v>
-      </c>
-      <c r="D94">
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="E94">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
         <v>157</v>
       </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="D95">
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="E95">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
         <v>158</v>
       </c>
-      <c r="B96">
-        <v>2</v>
-      </c>
-      <c r="D96">
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="E96">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
         <v>159</v>
       </c>
-      <c r="B97">
-        <v>3</v>
-      </c>
-      <c r="D97">
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="E97">
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
         <v>160</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="D98">
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="E98">
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
         <v>161</v>
       </c>
-      <c r="B99">
-        <v>2</v>
-      </c>
-      <c r="D99">
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="E99">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
         <v>162</v>
       </c>
-      <c r="B100">
-        <v>3</v>
-      </c>
-      <c r="D100">
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="E100">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
         <v>163</v>
       </c>
-      <c r="B101">
-        <v>4</v>
-      </c>
-      <c r="D101">
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="E101">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
         <v>164</v>
       </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="D102">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="E102">
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
         <v>165</v>
       </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-      <c r="D103">
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="E103">
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
         <v>166</v>
       </c>
-      <c r="B104">
-        <v>3</v>
-      </c>
-      <c r="D104">
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="E104">
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
         <v>167</v>
       </c>
-      <c r="B105">
-        <v>4</v>
-      </c>
-      <c r="D105">
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="E105">
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
         <v>168</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>5</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
         <v>169</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>6</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
         <v>170</v>
       </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="D108">
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="E108">
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
         <v>171</v>
       </c>
-      <c r="B109">
-        <v>2</v>
-      </c>
-      <c r="D109">
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="E109">
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
         <v>172</v>
       </c>
-      <c r="B110">
-        <v>3</v>
-      </c>
-      <c r="D110">
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="E110">
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
         <v>173</v>
       </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="D111">
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="E111">
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
         <v>174</v>
       </c>
-      <c r="B112">
-        <v>2</v>
-      </c>
-      <c r="D112">
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="E112">
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
         <v>175</v>
       </c>
-      <c r="B113">
-        <v>3</v>
-      </c>
-      <c r="D113">
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="E113">
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
         <v>176</v>
       </c>
-      <c r="B114">
-        <v>4</v>
-      </c>
-      <c r="D114">
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="E114">
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
         <v>186</v>
       </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="D115">
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="E115">
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
         <v>187</v>
       </c>
-      <c r="B116">
-        <v>2</v>
-      </c>
-      <c r="D116">
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="E116">
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
         <v>188</v>
       </c>
-      <c r="B117">
-        <v>3</v>
-      </c>
-      <c r="D117">
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="E117">
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
         <v>189</v>
       </c>
-      <c r="B118">
-        <v>4</v>
-      </c>
-      <c r="D118">
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="E118">
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
         <v>190</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>5</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
         <v>191</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>6</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
         <v>192</v>
       </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="D121">
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="E121">
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
         <v>193</v>
       </c>
-      <c r="B122">
-        <v>2</v>
-      </c>
-      <c r="D122">
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="E122">
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
         <v>194</v>
       </c>
-      <c r="B123">
-        <v>3</v>
-      </c>
-      <c r="D123">
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="E123">
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
         <v>195</v>
       </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="D124">
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="E124">
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
         <v>196</v>
       </c>
-      <c r="B125">
-        <v>2</v>
-      </c>
-      <c r="D125">
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="E125">
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
         <v>197</v>
       </c>
-      <c r="B126">
-        <v>3</v>
-      </c>
-      <c r="D126">
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="E126">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
         <v>198</v>
       </c>
-      <c r="B127">
-        <v>4</v>
-      </c>
-      <c r="D127">
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="E127">
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
         <v>199</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>5</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
         <v>200</v>
       </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="D129">
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="E129">
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
         <v>201</v>
       </c>
-      <c r="B130">
-        <v>2</v>
-      </c>
-      <c r="D130">
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="E130">
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
         <v>175</v>
       </c>
-      <c r="B131">
-        <v>3</v>
-      </c>
-      <c r="D131">
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="E131">
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
         <v>202</v>
       </c>
-      <c r="B132">
-        <v>4</v>
-      </c>
-      <c r="D132">
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="E132">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
         <v>203</v>
       </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="D133">
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="E133">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
         <v>213</v>
       </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="D134">
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="E134">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
         <v>214</v>
       </c>
-      <c r="B135">
-        <v>2</v>
-      </c>
-      <c r="D135">
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="E135">
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
         <v>215</v>
       </c>
-      <c r="B136">
-        <v>3</v>
-      </c>
-      <c r="D136">
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="E136">
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
         <v>216</v>
       </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="D137">
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="E137">
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
         <v>217</v>
       </c>
-      <c r="B138">
-        <v>2</v>
-      </c>
-      <c r="D138">
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="E138">
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
         <v>218</v>
       </c>
-      <c r="B139">
-        <v>3</v>
-      </c>
-      <c r="D139">
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="E139">
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
         <v>219</v>
       </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="D140">
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="E140">
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
         <v>220</v>
       </c>
-      <c r="B141">
-        <v>2</v>
-      </c>
-      <c r="D141">
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="E141">
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
         <v>221</v>
       </c>
-      <c r="B142">
-        <v>3</v>
-      </c>
-      <c r="D142">
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="E142">
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
         <v>222</v>
       </c>
-      <c r="B143">
-        <v>4</v>
-      </c>
-      <c r="D143">
+      <c r="C143">
+        <v>4</v>
+      </c>
+      <c r="E143">
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
         <v>223</v>
       </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="D144">
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="E144">
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
         <v>232</v>
       </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="D145">
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="E145">
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
         <v>233</v>
       </c>
-      <c r="B146">
-        <v>2</v>
-      </c>
-      <c r="D146">
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="E146">
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
         <v>234</v>
       </c>
-      <c r="B147">
-        <v>3</v>
-      </c>
-      <c r="D147">
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="E147">
         <v>38</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
         <v>235</v>
       </c>
-      <c r="B148">
-        <v>4</v>
-      </c>
-      <c r="D148">
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="E148">
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
         <v>236</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>5</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
         <v>237</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>6</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>38</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
         <v>238</v>
       </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="D151">
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="E151">
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
         <v>239</v>
       </c>
-      <c r="B152">
-        <v>2</v>
-      </c>
-      <c r="D152">
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="E152">
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
         <v>240</v>
       </c>
-      <c r="B153">
-        <v>3</v>
-      </c>
-      <c r="D153">
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="E153">
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
         <v>241</v>
       </c>
-      <c r="B154">
-        <v>4</v>
-      </c>
-      <c r="D154">
+      <c r="C154">
+        <v>4</v>
+      </c>
+      <c r="E154">
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
         <v>242</v>
       </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="D155">
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="E155">
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
         <v>243</v>
       </c>
-      <c r="B156">
-        <v>2</v>
-      </c>
-      <c r="D156">
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="E156">
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
         <v>244</v>
       </c>
-      <c r="B157">
-        <v>3</v>
-      </c>
-      <c r="D157">
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="E157">
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
         <v>241</v>
       </c>
-      <c r="B158">
-        <v>4</v>
-      </c>
-      <c r="D158">
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="E158">
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
         <v>245</v>
       </c>
-      <c r="B159">
+      <c r="C159">
         <v>5</v>
       </c>
-      <c r="D159">
+      <c r="E159">
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
         <v>246</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>6</v>
       </c>
-      <c r="D160">
+      <c r="E160">
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
         <v>247</v>
       </c>
-      <c r="B161">
+      <c r="C161">
         <v>7</v>
       </c>
-      <c r="D161">
+      <c r="E161">
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
         <v>248</v>
       </c>
-      <c r="B162">
+      <c r="C162">
         <v>8</v>
       </c>
-      <c r="D162">
+      <c r="E162">
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
         <v>249</v>
       </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="D163">
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="E163">
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
         <v>250</v>
       </c>
-      <c r="B164">
-        <v>2</v>
-      </c>
-      <c r="D164">
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="E164">
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
         <v>251</v>
       </c>
-      <c r="B165">
-        <v>3</v>
-      </c>
-      <c r="D165">
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="E165">
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
         <v>252</v>
       </c>
-      <c r="B166">
-        <v>4</v>
-      </c>
-      <c r="D166">
+      <c r="C166">
+        <v>4</v>
+      </c>
+      <c r="E166">
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
         <v>253</v>
       </c>
-      <c r="B167">
+      <c r="C167">
         <v>5</v>
       </c>
-      <c r="D167">
+      <c r="E167">
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
         <v>237</v>
       </c>
-      <c r="B168">
+      <c r="C168">
         <v>6</v>
       </c>
-      <c r="D168">
+      <c r="E168">
         <v>41</v>
       </c>
     </row>
